--- a/csenergy/data/tags año meteorologico.xlsx
+++ b/csenergy/data/tags año meteorologico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paco\0_TFG\csenergy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D81AC6EA-8118-4C2D-B20C-C85F2714FE09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2731460-48A2-4F0C-B315-E11662096776}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{5311D597-D772-409D-A1CE-9D6F70457483}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>RADC DIR VLR INSTN</t>
   </si>
@@ -175,6 +175,30 @@
   </si>
   <si>
     <t>5360-XT-5815-C2</t>
+  </si>
+  <si>
+    <t>1320-TT-1937</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1320-TT-1931</t>
+  </si>
+  <si>
+    <t>3320-TT-3002</t>
+  </si>
+  <si>
+    <t>3320-TT-3007</t>
+  </si>
+  <si>
+    <t>T ENT GENERADOR</t>
+  </si>
+  <si>
+    <t>BY PASS GEN</t>
+  </si>
+  <si>
+    <t>BMB PCPAL B</t>
+  </si>
+  <si>
+    <t>BMB PCPAL A</t>
   </si>
 </sst>
 </file>
@@ -560,15 +584,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B3CE37-432A-435D-A3AC-07D0ECDD8959}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="27" max="27" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -648,8 +679,20 @@
       <c r="AA1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="AB1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -730,7 +773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -811,6 +854,18 @@
       </c>
       <c r="AA3" s="2" t="s">
         <v>47</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
